--- a/FichesTemps/LouisGarceauSemaine3.xlsx
+++ b/FichesTemps/LouisGarceauSemaine3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C22CD9-6A97-45E7-BE67-2CE45F0429EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DFF791-8723-4AFA-B395-5E5DEC11A5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="864" yWindow="432" windowWidth="15960" windowHeight="9960" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -419,6 +419,15 @@
   </si>
   <si>
     <t>Utilisation du repository pattern de type d'analyse</t>
+  </si>
+  <si>
+    <t>Création de tests de Get, Create, Update et Delete de type d'analyse avec Moq et AutoFixture</t>
+  </si>
+  <si>
+    <t>Utilisation du repository pattern et création de tests de Get, Create, Update et Delete de type de valeur avec Moq et AutoFixture</t>
+  </si>
+  <si>
+    <t>Courte recherche sur les requêtes d'impression avec React Native</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +1814,7 @@
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="100.21875" customWidth="1"/>
+    <col min="4" max="4" width="105.21875" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
@@ -1891,7 +1900,7 @@
       </c>
       <c r="C9" s="41">
         <f>SUM(C11:C463)</f>
-        <v>19.75</v>
+        <v>20.8</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>64</v>
@@ -2101,16 +2110,28 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="42">
+        <v>44968</v>
+      </c>
       <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="42">
+        <v>44968</v>
+      </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
@@ -2119,10 +2140,16 @@
       <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="42">
+        <v>44969</v>
+      </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>

--- a/FichesTemps/LouisGarceauSemaine3.xlsx
+++ b/FichesTemps/LouisGarceauSemaine3.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DFF791-8723-4AFA-B395-5E5DEC11A5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587724D1-D4C6-471C-BAE6-321F91AD98AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="432" windowWidth="15960" windowHeight="9960" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1524" yWindow="936" windowWidth="15960" windowHeight="9960" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -428,6 +428,21 @@
   </si>
   <si>
     <t>Courte recherche sur les requêtes d'impression avec React Native</t>
+  </si>
+  <si>
+    <t>Recherche sur les requêtes d'impression avec React Native avec react-native-print et début de l'ajout au projet</t>
+  </si>
+  <si>
+    <t>Début de l'affichage des résultats d'une analyse</t>
+  </si>
+  <si>
+    <t>Continuation du travail sur l'affichage des résultats (fix de la liste des types de valeur)</t>
+  </si>
+  <si>
+    <t>Tentative de fix du test unitaire avec le nouveau code de création de requête</t>
+  </si>
+  <si>
+    <t>Fix du problème de object cycle dans le get de liste de types de valeur</t>
   </si>
 </sst>
 </file>
@@ -1806,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,7 +1915,7 @@
       </c>
       <c r="C9" s="41">
         <f>SUM(C11:C463)</f>
-        <v>20.8</v>
+        <v>24.3</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>64</v>
@@ -2152,34 +2167,64 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="42">
+        <v>44969</v>
+      </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="42">
+        <v>44969</v>
+      </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="42">
+        <v>44969</v>
+      </c>
       <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="42">
+        <v>44969</v>
+      </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="42">
+        <v>44969</v>
+      </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46"/>
+      <c r="C36" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>

--- a/FichesTemps/LouisGarceauSemaine3.xlsx
+++ b/FichesTemps/LouisGarceauSemaine3.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587724D1-D4C6-471C-BAE6-321F91AD98AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10C4DD-D63D-4869-B1BF-58BAC6539AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="936" windowWidth="15960" windowHeight="9960" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -443,6 +443,21 @@
   </si>
   <si>
     <t>Fix du problème de object cycle dans le get de liste de types de valeur</t>
+  </si>
+  <si>
+    <t>Karl a grandement aidé à faire la documentation du projet cette semaine. Ce n'est pas nécessairement une tâche que tout le monde aime faire, donc son travail est très apprécié. Cependant son travail sur le seed a été fait en plus de temps que prévu.</t>
+  </si>
+  <si>
+    <t>Maxime a beaucoup aidé pour faire l'application. Cependant, à certains moments, il a enlevé son micro pour mieux travailler seul, ce qui est compréhensible, mais cela a fait en sorte qu'il soit moins vocal.</t>
+  </si>
+  <si>
+    <t>Jean-Philippe a grandement aidé au développement du projet. Je n'ai pas vraiment de reproche à son égard.</t>
+  </si>
+  <si>
+    <t>Cette semaine, je pense avoir donné les efforts nécessaires. Malheureusement, je ne pense pas avoir été aussi efficace que j'aurais dû l'être quand j'ai fait les tests de l'API. J'ai aussi un peu trop fait mon travail de mon bord en écoutant moins les autres.</t>
+  </si>
+  <si>
+    <t>Victor a été très utile pour développer l'application. Aussi, cette semaine, il a été plus coopératif par rapport au partage des idées données.</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1899,11 +1914,11 @@
       <c r="C8" s="50"/>
       <c r="D8" s="34" t="str">
         <f>_xlfn.CONCAT("Évaluateur = ",Évaluateur!F14," ",Évaluateur!D30,CHAR(10),'Coéquipier 1'!D9:I9," ",'Coéquipier 1'!D10:I10," = ",'Coéquipier 1'!F11:I25," ",'Coéquipier 1'!D27:I27,CHAR(10),'Coéquipier 2'!D9:I9," ",'Coéquipier 2'!D10:I10," = ",'Coéquipier 2'!F11:I25,CHAR(10),'Coéquipier 3'!D9:I9," ",'Coéquipier 3'!D10:I10," = ",'Coéquipier 3'!F11:I25,CHAR(10),'Coéquipier 4'!D9:I9," ",'Coéquipier 4'!D10:I10," = ",'Coéquipier 4'!F11:I25,CHAR(10),'Coéquipier 5'!D9:I9," ",'Coéquipier 5'!D10:I10," = ",'Coéquipier 5'!F11:I25)</f>
-        <v>Évaluateur = 75 
-Jean-Philippe Belval = 75 
+        <v>Évaluateur = 72 Cette semaine, je pense avoir donné les efforts nécessaires. Malheureusement, je ne pense pas avoir été aussi efficace que j'aurais dû l'être quand j'ai fait les tests de l'API. J'ai aussi un peu trop fait mon travail de mon bord en écoutant moins les autres.
+Jean-Philippe Belval = 75 Jean-Philippe a grandement aidé au développement du projet. Je n'ai pas vraiment de reproche à son égard.
 Victor Turgeon = 75
-Karl Mainville = 75
-Maxime Aubin = 75
+Karl Mainville = 74
+Maxime Aubin = 74
 Coéquipier 5 = à évaluer</v>
       </c>
       <c r="E8" s="10"/>
@@ -4817,7 +4832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:I30"/>
     </sheetView>
   </sheetViews>
@@ -5010,7 +5025,7 @@
       </c>
       <c r="F14" s="63">
         <f>IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
@@ -5081,11 +5096,11 @@
         <v>12</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="12">
         <f>VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="67"/>
@@ -5100,11 +5115,11 @@
         <v>13</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="12">
         <f>VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="67"/>
@@ -5233,11 +5248,11 @@
         <v>18</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="12">
         <f>VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="66"/>
       <c r="G26" s="67"/>
@@ -5295,7 +5310,9 @@
       <c r="C30" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="58" t="s">
+        <v>102</v>
+      </c>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
@@ -5411,8 +5428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5841,7 +5858,9 @@
       <c r="C27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="58" t="s">
+        <v>101</v>
+      </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
@@ -5955,7 +5974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
@@ -6385,7 +6404,9 @@
       <c r="C27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="58" t="s">
+        <v>103</v>
+      </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
@@ -6499,7 +6520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
@@ -6644,7 +6665,7 @@
       </c>
       <c r="F11" s="74">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="75"/>
       <c r="H11" s="75"/>
@@ -6848,11 +6869,11 @@
         <v>42</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="12">
         <f>VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="77"/>
       <c r="G22" s="78"/>
@@ -6929,7 +6950,9 @@
       <c r="C27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="58" t="s">
+        <v>99</v>
+      </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
@@ -7043,8 +7066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:I27"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7188,7 +7211,7 @@
       </c>
       <c r="F11" s="74">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="75"/>
       <c r="H11" s="75"/>
@@ -7278,11 +7301,11 @@
         <v>36</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="12">
         <f>VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="78"/>
@@ -7473,7 +7496,9 @@
       <c r="C27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="58" t="s">
+        <v>100</v>
+      </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
